--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,84 +49,87 @@
     <t>crude</t>
   </si>
   <si>
+    <t>complaints</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>war</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>war</t>
+    <t>ridiculous</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>isolation</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -136,223 +139,214 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>safely</t>
+  </si>
+  <si>
     <t>beauty</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>better</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>boost</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>dear</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>want</t>
+    <t>health</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>new</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>new</t>
+    <t>store</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -713,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,10 +715,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -803,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -853,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -882,13 +876,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -924,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -932,13 +926,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -950,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.9615384615384616</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -974,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -982,13 +976,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1000,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>0.9545454545454546</v>
@@ -1032,13 +1026,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7241379310344828</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1050,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.9473684210526315</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1074,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1082,13 +1076,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1100,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1124,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1132,13 +1126,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1150,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.9322033898305084</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1174,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1182,13 +1176,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6917808219178082</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C11">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1200,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1224,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1232,37 +1226,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5652173913043478</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>13</v>
       </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.8839285714285714</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1282,13 +1276,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5333333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1300,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.8414634146341463</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1324,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1332,13 +1326,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5263157894736842</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1350,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.8333333333333334</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1374,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1382,13 +1376,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4838709677419355</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1400,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.8148148148148148</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M15">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1424,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1432,13 +1426,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4594594594594595</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1450,31 +1444,31 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16">
+        <v>0.84375</v>
+      </c>
+      <c r="L16">
+        <v>108</v>
+      </c>
+      <c r="M16">
+        <v>108</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>20</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16">
-        <v>0.8125</v>
-      </c>
-      <c r="L16">
-        <v>13</v>
-      </c>
-      <c r="M16">
-        <v>13</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1482,37 +1476,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4358974358974359</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>17</v>
       </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>22</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.8103448275862069</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1524,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1553,16 +1547,16 @@
         <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18">
-        <v>0.8085106382978723</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1574,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1582,13 +1576,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4193548387096774</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1600,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19">
-        <v>0.8083333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1624,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1632,13 +1626,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1650,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>0.8046875</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L20">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1674,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1682,13 +1676,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3611111111111111</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1703,16 +1697,16 @@
         <v>23</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.7916666666666666</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1724,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1732,13 +1726,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3527131782945737</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C22">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1750,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K22">
-        <v>0.7843137254901961</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1774,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1782,13 +1776,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3333333333333333</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1800,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.7816901408450704</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L23">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1824,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1832,13 +1826,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3154362416107382</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C24">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="D24">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1850,19 +1844,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>102</v>
+        <v>342</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K24">
-        <v>0.7619047619047619</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L24">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M24">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1874,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1882,13 +1876,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.291005291005291</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1900,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1924,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1932,13 +1926,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.288135593220339</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1950,19 +1944,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K26">
-        <v>0.75</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1974,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1982,13 +1976,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2727272727272727</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C27">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2000,19 +1994,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K27">
-        <v>0.7391304347826086</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2024,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2053,16 +2047,16 @@
         <v>38</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K28">
-        <v>0.7358490566037735</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L28">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2074,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2082,13 +2076,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.225</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2100,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K29">
-        <v>0.6944444444444444</v>
+        <v>0.725</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2124,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2153,16 +2147,16 @@
         <v>72</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K30">
-        <v>0.6595744680851063</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L30">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2174,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2182,13 +2176,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1746031746031746</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="C31">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D31">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2200,19 +2194,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K31">
-        <v>0.6214099216710183</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L31">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="M31">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2224,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>145</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2232,13 +2226,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.09919571045576407</v>
+        <v>0.1625</v>
       </c>
       <c r="C32">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2250,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>336</v>
+        <v>67</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K32">
-        <v>0.6176470588235294</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2274,99 +2268,123 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="10:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.1018766756032172</v>
+      </c>
+      <c r="C33">
+        <v>38</v>
+      </c>
+      <c r="D33">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>335</v>
+      </c>
       <c r="J33" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K33">
+        <v>0.625</v>
+      </c>
+      <c r="L33">
+        <v>30</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="J34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34">
+        <v>0.6214099216710183</v>
+      </c>
+      <c r="L34">
+        <v>238</v>
+      </c>
+      <c r="M34">
+        <v>238</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="J35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35">
         <v>0.6071428571428571</v>
       </c>
-      <c r="L33">
+      <c r="L35">
         <v>17</v>
       </c>
-      <c r="M33">
+      <c r="M35">
         <v>17</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34">
-        <v>0.6046511627906976</v>
-      </c>
-      <c r="L34">
-        <v>26</v>
-      </c>
-      <c r="M34">
-        <v>26</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="10:17">
-      <c r="J35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35">
-        <v>0.6041666666666666</v>
-      </c>
-      <c r="L35">
-        <v>29</v>
-      </c>
-      <c r="M35">
-        <v>29</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
+    <row r="36" spans="1:17">
       <c r="J36" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K36">
-        <v>0.5806451612903226</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2378,12 +2396,12 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="10:17">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K37">
         <v>0.58</v>
@@ -2407,18 +2425,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="10:17">
+    <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2430,21 +2448,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="10:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K39">
-        <v>0.5676470588235294</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L39">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2456,12 +2474,12 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="10:17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K40">
         <v>0.55</v>
@@ -2485,18 +2503,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="10:17">
+    <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K41">
-        <v>0.5322033898305085</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L41">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="M41">
-        <v>157</v>
+        <v>47</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2508,21 +2526,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K42">
-        <v>0.5280898876404494</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L42">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2534,21 +2552,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="10:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K43">
-        <v>0.4848484848484849</v>
+        <v>0.5152542372881356</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2560,21 +2578,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K44">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2589,18 +2607,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="10:17">
+    <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K45">
-        <v>0.4769874476987448</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2612,21 +2630,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K46">
-        <v>0.4666666666666667</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2638,73 +2656,73 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K47">
+        <v>0.46875</v>
+      </c>
+      <c r="L47">
+        <v>30</v>
+      </c>
+      <c r="M47">
+        <v>30</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K48">
         <v>0.4642857142857143</v>
       </c>
-      <c r="L47">
+      <c r="L48">
         <v>13</v>
       </c>
-      <c r="M47">
+      <c r="M48">
         <v>13</v>
       </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K48">
-        <v>0.4571428571428571</v>
-      </c>
-      <c r="L48">
-        <v>16</v>
-      </c>
-      <c r="M48">
-        <v>16</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>19</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K49">
-        <v>0.4523809523809524</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2716,47 +2734,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>23</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K50">
-        <v>0.45</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>18</v>
-      </c>
-      <c r="M50">
-        <v>18</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>22</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K51">
-        <v>0.4375</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2768,21 +2786,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>0.4</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2794,47 +2812,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K53">
-        <v>0.4</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="L53">
+        <v>21</v>
+      </c>
+      <c r="M53">
+        <v>21</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>26</v>
-      </c>
-      <c r="M53">
-        <v>26</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>39</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K54">
-        <v>0.3972602739726027</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L54">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M54">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2846,21 +2864,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>0.3846153846153846</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L55">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2872,21 +2890,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K56">
-        <v>0.3191489361702128</v>
+        <v>0.4</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2898,21 +2916,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K57">
-        <v>0.2786885245901639</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L57">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2924,21 +2942,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K58">
-        <v>0.2711864406779661</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2950,21 +2968,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K59">
-        <v>0.2361111111111111</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2976,21 +2994,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K60">
-        <v>0.2203389830508475</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3002,21 +3020,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>46</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K61">
-        <v>0.1368421052631579</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3028,21 +3046,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K62">
-        <v>0.1259842519685039</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3054,21 +3072,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>111</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K63">
-        <v>0.1076555023923445</v>
+        <v>0.09808612440191387</v>
       </c>
       <c r="L63">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M63">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3080,21 +3098,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K64">
-        <v>0.08413461538461539</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L64">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3106,21 +3124,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>381</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K65">
-        <v>0.08139534883720931</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="L65">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3132,21 +3150,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>158</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K66">
-        <v>0.07906976744186046</v>
+        <v>0.06487695749440715</v>
       </c>
       <c r="L66">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3158,47 +3176,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>198</v>
+        <v>836</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K67">
-        <v>0.06976744186046512</v>
+        <v>0.05521472392638037</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>200</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K68">
-        <v>0.06116207951070336</v>
+        <v>0.04439511653718091</v>
       </c>
       <c r="L68">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M68">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3210,47 +3228,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>307</v>
+        <v>861</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K69">
-        <v>0.05592841163310962</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L69">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M69">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>844</v>
+        <v>627</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K70">
-        <v>0.04439511653718091</v>
+        <v>0.03229527104959631</v>
       </c>
       <c r="L70">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M70">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3262,189 +3280,111 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>861</v>
+        <v>839</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K71">
-        <v>0.02936630602782071</v>
+        <v>0.02807674309780065</v>
       </c>
       <c r="L71">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M71">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N71">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="O71">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>628</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K72">
-        <v>0.02803738317757009</v>
+        <v>0.01962809917355372</v>
       </c>
       <c r="L72">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="M72">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="N72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>2080</v>
+        <v>949</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K73">
-        <v>0.02674897119341564</v>
+        <v>0.01483392454047082</v>
       </c>
       <c r="L73">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M73">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>473</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K74">
-        <v>0.02655889145496536</v>
+        <v>0.007201001878522229</v>
       </c>
       <c r="L74">
         <v>23</v>
       </c>
       <c r="M74">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N74">
-        <v>0.96</v>
+        <v>0.77</v>
       </c>
       <c r="O74">
-        <v>0.04000000000000004</v>
+        <v>0.23</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="75" spans="10:17">
-      <c r="J75" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K75">
-        <v>0.01449742268041237</v>
-      </c>
-      <c r="L75">
-        <v>45</v>
-      </c>
-      <c r="M75">
-        <v>48</v>
-      </c>
-      <c r="N75">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O75">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P75" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q75">
-        <v>3059</v>
-      </c>
-    </row>
-    <row r="76" spans="10:17">
-      <c r="J76" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K76">
-        <v>0.01344364012409514</v>
-      </c>
-      <c r="L76">
-        <v>13</v>
-      </c>
-      <c r="M76">
-        <v>14</v>
-      </c>
-      <c r="N76">
-        <v>0.93</v>
-      </c>
-      <c r="O76">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P76" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q76">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="77" spans="10:17">
-      <c r="J77" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K77">
-        <v>0.007191994996873046</v>
-      </c>
-      <c r="L77">
-        <v>23</v>
-      </c>
-      <c r="M77">
-        <v>26</v>
-      </c>
-      <c r="N77">
-        <v>0.88</v>
-      </c>
-      <c r="O77">
-        <v>0.12</v>
-      </c>
-      <c r="P77" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>3175</v>
+        <v>3171</v>
       </c>
     </row>
   </sheetData>
